--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Csf3</t>
+  </si>
+  <si>
+    <t>Csf3r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Csf3</t>
-  </si>
-  <si>
-    <t>Csf3r</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1878103333333333</v>
+        <v>0.22676</v>
       </c>
       <c r="H2">
-        <v>0.563431</v>
+        <v>0.68028</v>
       </c>
       <c r="I2">
-        <v>0.2263136838739686</v>
+        <v>0.7013817719921559</v>
       </c>
       <c r="J2">
-        <v>0.2263136838739686</v>
+        <v>0.701381771992156</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.020623</v>
+        <v>0.6780179999999999</v>
       </c>
       <c r="N2">
-        <v>0.06186900000000001</v>
+        <v>2.034054</v>
       </c>
       <c r="O2">
-        <v>0.0002027435432973823</v>
+        <v>0.005553487038179096</v>
       </c>
       <c r="P2">
-        <v>0.0002028369143473829</v>
+        <v>0.005563300359956763</v>
       </c>
       <c r="Q2">
-        <v>0.003873212504333334</v>
+        <v>0.15374736168</v>
       </c>
       <c r="R2">
-        <v>0.034858912539</v>
+        <v>1.38372625512</v>
       </c>
       <c r="S2">
-        <v>4.588363816529203E-05</v>
+        <v>0.003895114579573524</v>
       </c>
       <c r="T2">
-        <v>4.590476931158485E-05</v>
+        <v>0.003901997464591073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1878103333333333</v>
+        <v>0.22676</v>
       </c>
       <c r="H3">
-        <v>0.563431</v>
+        <v>0.68028</v>
       </c>
       <c r="I3">
-        <v>0.2263136838739686</v>
+        <v>0.7013817719921559</v>
       </c>
       <c r="J3">
-        <v>0.2263136838739686</v>
+        <v>0.701381771992156</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.428805</v>
       </c>
       <c r="O3">
-        <v>0.001405185877962049</v>
+        <v>0.001170747192260573</v>
       </c>
       <c r="P3">
-        <v>0.001405833019068184</v>
+        <v>0.001172815967939524</v>
       </c>
       <c r="Q3">
-        <v>0.026844669995</v>
+        <v>0.0324119406</v>
       </c>
       <c r="R3">
-        <v>0.241602029955</v>
+        <v>0.2917074654</v>
       </c>
       <c r="S3">
-        <v>0.0003180127925692681</v>
+        <v>0.000821140740262562</v>
       </c>
       <c r="T3">
-        <v>0.0003181592494569839</v>
+        <v>0.0008225917418141187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1878103333333333</v>
+        <v>0.22676</v>
       </c>
       <c r="H4">
-        <v>0.563431</v>
+        <v>0.68028</v>
       </c>
       <c r="I4">
-        <v>0.2263136838739686</v>
+        <v>0.7013817719921559</v>
       </c>
       <c r="J4">
-        <v>0.2263136838739686</v>
+        <v>0.701381771992156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.11817133333333</v>
+        <v>70.52176533333333</v>
       </c>
       <c r="N4">
-        <v>150.354514</v>
+        <v>211.565296</v>
       </c>
       <c r="O4">
-        <v>0.4927088997578086</v>
+        <v>0.5776273044199043</v>
       </c>
       <c r="P4">
-        <v>0.4929358107931335</v>
+        <v>0.5786480041292705</v>
       </c>
       <c r="Q4">
-        <v>9.412710464170443</v>
+        <v>15.99151550698667</v>
       </c>
       <c r="R4">
-        <v>84.714394177534</v>
+        <v>143.92363956288</v>
       </c>
       <c r="S4">
-        <v>0.1115067661816796</v>
+        <v>0.405137262325085</v>
       </c>
       <c r="T4">
-        <v>0.1115581192539956</v>
+        <v>0.4058531624959122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1878103333333333</v>
+        <v>0.22676</v>
       </c>
       <c r="H5">
-        <v>0.563431</v>
+        <v>0.68028</v>
       </c>
       <c r="I5">
-        <v>0.2263136838739686</v>
+        <v>0.7013817719921559</v>
       </c>
       <c r="J5">
-        <v>0.2263136838739686</v>
+        <v>0.701381771992156</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1404725</v>
+        <v>0.646071</v>
       </c>
       <c r="N5">
-        <v>0.280945</v>
+        <v>1.292142</v>
       </c>
       <c r="O5">
-        <v>0.001380977180130996</v>
+        <v>0.005291816624696405</v>
       </c>
       <c r="P5">
-        <v>0.0009210754481456864</v>
+        <v>0.003534111706825508</v>
       </c>
       <c r="Q5">
-        <v>0.02638218704916667</v>
+        <v>0.14650305996</v>
       </c>
       <c r="R5">
-        <v>0.158293122295</v>
+        <v>0.87901835976</v>
       </c>
       <c r="S5">
-        <v>0.0003125340329813308</v>
+        <v>0.003711583721287114</v>
       </c>
       <c r="T5">
-        <v>0.0002084519777957168</v>
+        <v>0.002478761531351497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1878103333333333</v>
+        <v>0.22676</v>
       </c>
       <c r="H6">
-        <v>0.563431</v>
+        <v>0.68028</v>
       </c>
       <c r="I6">
-        <v>0.2263136838739686</v>
+        <v>0.7013817719921559</v>
       </c>
       <c r="J6">
-        <v>0.2263136838739686</v>
+        <v>0.701381771992156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.297437</v>
+        <v>50.09990833333333</v>
       </c>
       <c r="N6">
-        <v>153.892311</v>
+        <v>150.299725</v>
       </c>
       <c r="O6">
-        <v>0.504302193640801</v>
+        <v>0.4103566447249595</v>
       </c>
       <c r="P6">
-        <v>0.5045344438253051</v>
+        <v>0.4110817678360075</v>
       </c>
       <c r="Q6">
-        <v>9.634188742115667</v>
+        <v>11.36065521366667</v>
       </c>
       <c r="R6">
-        <v>86.707698679041</v>
+        <v>102.245896923</v>
       </c>
       <c r="S6">
-        <v>0.1141304872285731</v>
+        <v>0.2878166706259477</v>
       </c>
       <c r="T6">
-        <v>0.1141830486234087</v>
+        <v>0.288325258758487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03024933333333333</v>
+        <v>0.09654466666666667</v>
       </c>
       <c r="H7">
-        <v>0.090748</v>
+        <v>0.289634</v>
       </c>
       <c r="I7">
-        <v>0.03645080619311842</v>
+        <v>0.298618228007844</v>
       </c>
       <c r="J7">
-        <v>0.03645080619311841</v>
+        <v>0.298618228007844</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.020623</v>
+        <v>0.6780179999999999</v>
       </c>
       <c r="N7">
-        <v>0.06186900000000001</v>
+        <v>2.034054</v>
       </c>
       <c r="O7">
-        <v>0.0002027435432973823</v>
+        <v>0.005553487038179096</v>
       </c>
       <c r="P7">
-        <v>0.0002028369143473829</v>
+        <v>0.005563300359956763</v>
       </c>
       <c r="Q7">
-        <v>0.0006238320013333333</v>
+        <v>0.065459021804</v>
       </c>
       <c r="R7">
-        <v>0.005614488012000001</v>
+        <v>0.589131196236</v>
       </c>
       <c r="S7">
-        <v>7.390165603638994E-06</v>
+        <v>0.001658372458605572</v>
       </c>
       <c r="T7">
-        <v>7.393569053686613E-06</v>
+        <v>0.001661302895365689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03024933333333333</v>
+        <v>0.09654466666666667</v>
       </c>
       <c r="H8">
-        <v>0.090748</v>
+        <v>0.289634</v>
       </c>
       <c r="I8">
-        <v>0.03645080619311842</v>
+        <v>0.298618228007844</v>
       </c>
       <c r="J8">
-        <v>0.03645080619311841</v>
+        <v>0.298618228007844</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.428805</v>
       </c>
       <c r="O8">
-        <v>0.001405185877962049</v>
+        <v>0.001170747192260573</v>
       </c>
       <c r="P8">
-        <v>0.001405833019068184</v>
+        <v>0.001172815967939524</v>
       </c>
       <c r="Q8">
-        <v>0.00432368846</v>
+        <v>0.01379961193</v>
       </c>
       <c r="R8">
-        <v>0.03891319613999999</v>
+        <v>0.12419650737</v>
       </c>
       <c r="S8">
-        <v>5.122015810290159E-05</v>
+        <v>0.000349606451998011</v>
       </c>
       <c r="T8">
-        <v>5.124374691794093E-05</v>
+        <v>0.0003502242261254049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03024933333333333</v>
+        <v>0.09654466666666667</v>
       </c>
       <c r="H9">
-        <v>0.090748</v>
+        <v>0.289634</v>
       </c>
       <c r="I9">
-        <v>0.03645080619311842</v>
+        <v>0.298618228007844</v>
       </c>
       <c r="J9">
-        <v>0.03645080619311841</v>
+        <v>0.298618228007844</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.11817133333333</v>
+        <v>70.52176533333333</v>
       </c>
       <c r="N9">
-        <v>150.354514</v>
+        <v>211.565296</v>
       </c>
       <c r="O9">
-        <v>0.4927088997578086</v>
+        <v>0.5776273044199043</v>
       </c>
       <c r="P9">
-        <v>0.4929358107931335</v>
+        <v>0.5786480041292705</v>
       </c>
       <c r="Q9">
-        <v>1.516041270719111</v>
+        <v>6.808500326851556</v>
       </c>
       <c r="R9">
-        <v>13.644371436472</v>
+        <v>61.27650294166401</v>
       </c>
       <c r="S9">
-        <v>0.01795963661469649</v>
+        <v>0.1724900420948193</v>
       </c>
       <c r="T9">
-        <v>0.0179679077048682</v>
+        <v>0.1727948416333584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03024933333333333</v>
+        <v>0.09654466666666667</v>
       </c>
       <c r="H10">
-        <v>0.090748</v>
+        <v>0.289634</v>
       </c>
       <c r="I10">
-        <v>0.03645080619311842</v>
+        <v>0.298618228007844</v>
       </c>
       <c r="J10">
-        <v>0.03645080619311841</v>
+        <v>0.298618228007844</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1404725</v>
+        <v>0.646071</v>
       </c>
       <c r="N10">
-        <v>0.280945</v>
+        <v>1.292142</v>
       </c>
       <c r="O10">
-        <v>0.001380977180130996</v>
+        <v>0.005291816624696405</v>
       </c>
       <c r="P10">
-        <v>0.0009210754481456864</v>
+        <v>0.003534111706825508</v>
       </c>
       <c r="Q10">
-        <v>0.004249199476666667</v>
+        <v>0.062374709338</v>
       </c>
       <c r="R10">
-        <v>0.02549519686</v>
+        <v>0.374248256028</v>
       </c>
       <c r="S10">
-        <v>5.033773155007411E-05</v>
+        <v>0.001580232903409291</v>
       </c>
       <c r="T10">
-        <v>3.35739426495981E-05</v>
+        <v>0.00105535017547401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03024933333333333</v>
+        <v>0.09654466666666667</v>
       </c>
       <c r="H11">
-        <v>0.090748</v>
+        <v>0.289634</v>
       </c>
       <c r="I11">
-        <v>0.03645080619311842</v>
+        <v>0.298618228007844</v>
       </c>
       <c r="J11">
-        <v>0.03645080619311841</v>
+        <v>0.298618228007844</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.297437</v>
+        <v>50.09990833333333</v>
       </c>
       <c r="N11">
-        <v>153.892311</v>
+        <v>150.299725</v>
       </c>
       <c r="O11">
-        <v>0.504302193640801</v>
+        <v>0.4103566447249595</v>
       </c>
       <c r="P11">
-        <v>0.5045344438253051</v>
+        <v>0.4110817678360075</v>
       </c>
       <c r="Q11">
-        <v>1.551713270958667</v>
+        <v>4.836878950072222</v>
       </c>
       <c r="R11">
-        <v>13.965419438628</v>
+        <v>43.53191055065</v>
       </c>
       <c r="S11">
-        <v>0.01838222152316531</v>
+        <v>0.1225399740990118</v>
       </c>
       <c r="T11">
-        <v>0.01839068722962899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.6118076666666666</v>
-      </c>
-      <c r="H12">
-        <v>1.835423</v>
-      </c>
-      <c r="I12">
-        <v>0.737235509932913</v>
-      </c>
-      <c r="J12">
-        <v>0.737235509932913</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.020623</v>
-      </c>
-      <c r="N12">
-        <v>0.06186900000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.0002027435432973823</v>
-      </c>
-      <c r="P12">
-        <v>0.0002028369143473829</v>
-      </c>
-      <c r="Q12">
-        <v>0.01261730950966667</v>
-      </c>
-      <c r="R12">
-        <v>0.113555785587</v>
-      </c>
-      <c r="S12">
-        <v>0.0001494697395284512</v>
-      </c>
-      <c r="T12">
-        <v>0.0001495385759821114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.6118076666666666</v>
-      </c>
-      <c r="H13">
-        <v>1.835423</v>
-      </c>
-      <c r="I13">
-        <v>0.737235509932913</v>
-      </c>
-      <c r="J13">
-        <v>0.737235509932913</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.142935</v>
-      </c>
-      <c r="N13">
-        <v>0.428805</v>
-      </c>
-      <c r="O13">
-        <v>0.001405185877962049</v>
-      </c>
-      <c r="P13">
-        <v>0.001405833019068184</v>
-      </c>
-      <c r="Q13">
-        <v>0.087448728835</v>
-      </c>
-      <c r="R13">
-        <v>0.787038559515</v>
-      </c>
-      <c r="S13">
-        <v>0.001035952927289879</v>
-      </c>
-      <c r="T13">
-        <v>0.001036430022693259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.6118076666666666</v>
-      </c>
-      <c r="H14">
-        <v>1.835423</v>
-      </c>
-      <c r="I14">
-        <v>0.737235509932913</v>
-      </c>
-      <c r="J14">
-        <v>0.737235509932913</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>50.11817133333333</v>
-      </c>
-      <c r="N14">
-        <v>150.354514</v>
-      </c>
-      <c r="O14">
-        <v>0.4927088997578086</v>
-      </c>
-      <c r="P14">
-        <v>0.4929358107931335</v>
-      </c>
-      <c r="Q14">
-        <v>30.66268146104688</v>
-      </c>
-      <c r="R14">
-        <v>275.964133149422</v>
-      </c>
-      <c r="S14">
-        <v>0.3632424969614326</v>
-      </c>
-      <c r="T14">
-        <v>0.3634097838342697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.6118076666666666</v>
-      </c>
-      <c r="H15">
-        <v>1.835423</v>
-      </c>
-      <c r="I15">
-        <v>0.737235509932913</v>
-      </c>
-      <c r="J15">
-        <v>0.737235509932913</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.1404725</v>
-      </c>
-      <c r="N15">
-        <v>0.280945</v>
-      </c>
-      <c r="O15">
-        <v>0.001380977180130996</v>
-      </c>
-      <c r="P15">
-        <v>0.0009210754481456864</v>
-      </c>
-      <c r="Q15">
-        <v>0.08594215245583332</v>
-      </c>
-      <c r="R15">
-        <v>0.515652914735</v>
-      </c>
-      <c r="S15">
-        <v>0.001018105415599591</v>
-      </c>
-      <c r="T15">
-        <v>0.0006790495277003715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.6118076666666666</v>
-      </c>
-      <c r="H16">
-        <v>1.835423</v>
-      </c>
-      <c r="I16">
-        <v>0.737235509932913</v>
-      </c>
-      <c r="J16">
-        <v>0.737235509932913</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>51.297437</v>
-      </c>
-      <c r="N16">
-        <v>153.892311</v>
-      </c>
-      <c r="O16">
-        <v>0.504302193640801</v>
-      </c>
-      <c r="P16">
-        <v>0.5045344438253051</v>
-      </c>
-      <c r="Q16">
-        <v>31.38416523695033</v>
-      </c>
-      <c r="R16">
-        <v>282.457487132553</v>
-      </c>
-      <c r="S16">
-        <v>0.3717894848890625</v>
-      </c>
-      <c r="T16">
-        <v>0.3719607079722674</v>
+        <v>0.1227565090775205</v>
       </c>
     </row>
   </sheetData>
